--- a/Temp/dtdata.xlsx
+++ b/Temp/dtdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VAARAHI\Documents\UiPath\CompetitivePricing_Dispatcher_Windowss\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VAARAHI\Documents\UiPath\Lightening_DP\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3FE94C7-9B5C-4C25-A6D1-9E856C6B8B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22289A21-5E34-48E4-89F4-E1AA24ABEBEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="2616" yWindow="2616" windowWidth="17304" windowHeight="8892" firstSheet="0" activeTab="0" xr2:uid="{913A2737-5DE8-41EC-9659-EE7F29FC7DA4}"/>
+    <x:workbookView xWindow="1848" yWindow="1848" windowWidth="17280" windowHeight="8880" firstSheet="0" activeTab="0" xr2:uid="{CB0EF6B6-B6ED-4A35-BB08-378C9652F27E}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="sheet" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </x:ext>
   </x:extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <x:si>
     <x:t>Shape</x:t>
   </x:si>
@@ -54,40 +53,25 @@
     <x:t>Website</x:t>
   </x:si>
   <x:si>
-    <x:t>1.5 x .75 RCR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Duraguard (Silver Chrome)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1 Color</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Standard</x:t>
-  </x:si>
-  <x:si>
-    <x:t>www</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.seton.com/duraguard-tamper-evident-tags-rr2002.html#dyoAppContainer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2 x 1 RCR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>.005 Anodized Aluminum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.seton.com/custom-tamper-evident-asset-id-labels-js0003.html#dyoAppContainer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Destructible</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.seton.com/custom-destructible-bar-code-labels-ca4096.html#dyoAppContainer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Void</x:t>
+    <x:t>2" Circle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>White Gloss</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CMYK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shiny Lamination</x:t>
+  </x:si>
+  <x:si>
+    <x:t>wwwlightninglabels.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3" x 3" RCR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Matte Lamination</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -440,14 +424,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{2E5A515F-565A-45A0-B8A1-D5A605377364}" mc:Ignorable="x14ac xr xr2 xr3">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{29CA7C23-9889-46CC-AEEB-6AA6FD31CC99}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -457,7 +441,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <x:sheetData>
-    <x:row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <x:row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -498,7 +482,7 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:14">
+    <x:row r="2" spans="1:13">
       <x:c r="A2" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
@@ -511,31 +495,13 @@
       <x:c r="D2" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="E2" s="0" t="n">
-        <x:v>265</x:v>
-      </x:c>
-      <x:c r="G2" s="0" t="n">
-        <x:v>940</x:v>
-      </x:c>
-      <x:c r="H2" s="0" t="n">
-        <x:v>1351.3</x:v>
-      </x:c>
-      <x:c r="I2" s="0" t="n">
-        <x:v>2702.6</x:v>
-      </x:c>
-      <x:c r="J2" s="0" t="n">
-        <x:v>2890.5</x:v>
-      </x:c>
       <x:c r="M2" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="N2" s="0" t="s">
+    </x:row>
+    <x:row r="3" spans="1:13">
+      <x:c r="A3" s="0" t="s">
         <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:14">
-      <x:c r="A3" s="0" t="s">
-        <x:v>11</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
         <x:v>6</x:v>
@@ -544,188 +510,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E3" s="0" t="n">
-        <x:v>270</x:v>
-      </x:c>
-      <x:c r="G3" s="0" t="n">
-        <x:v>860</x:v>
-      </x:c>
-      <x:c r="H3" s="0" t="n">
-        <x:v>1236.3</x:v>
-      </x:c>
-      <x:c r="I3" s="0" t="n">
-        <x:v>2472.6</x:v>
-      </x:c>
-      <x:c r="J3" s="0" t="n">
-        <x:v>2644.5</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="M3" s="0" t="s">
         <x:v>9</x:v>
-      </x:c>
-      <x:c r="N3" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:14">
-      <x:c r="A4" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E4" s="0" t="n">
-        <x:v>335</x:v>
-      </x:c>
-      <x:c r="G4" s="0" t="n">
-        <x:v>1080</x:v>
-      </x:c>
-      <x:c r="H4" s="0" t="n">
-        <x:v>1550</x:v>
-      </x:c>
-      <x:c r="I4" s="0" t="n">
-        <x:v>3100</x:v>
-      </x:c>
-      <x:c r="J4" s="0" t="n">
-        <x:v>3487.5</x:v>
-      </x:c>
-      <x:c r="M4" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="N4" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:14">
-      <x:c r="A5" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E5" s="0" t="n">
-        <x:v>370</x:v>
-      </x:c>
-      <x:c r="G5" s="0" t="n">
-        <x:v>989</x:v>
-      </x:c>
-      <x:c r="H5" s="0" t="n">
-        <x:v>1422</x:v>
-      </x:c>
-      <x:c r="I5" s="0" t="n">
-        <x:v>2844</x:v>
-      </x:c>
-      <x:c r="J5" s="0" t="n">
-        <x:v>3199.5</x:v>
-      </x:c>
-      <x:c r="M5" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="N5" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:14">
-      <x:c r="A6" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="H6" s="0" t="n">
-        <x:v>924.9</x:v>
-      </x:c>
-      <x:c r="I6" s="0" t="n">
-        <x:v>1849.8</x:v>
-      </x:c>
-      <x:c r="J6" s="0" t="n">
-        <x:v>2774.7</x:v>
-      </x:c>
-      <x:c r="M6" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="N6" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:14">
-      <x:c r="A7" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C7" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="H7" s="0" t="n">
-        <x:v>1022.1</x:v>
-      </x:c>
-      <x:c r="I7" s="0" t="n">
-        <x:v>2044.2</x:v>
-      </x:c>
-      <x:c r="J7" s="0" t="n">
-        <x:v>3066.3</x:v>
-      </x:c>
-      <x:c r="M7" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="N7" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:14">
-      <x:c r="A8" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B8" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="C8" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E8" s="0" t="n">
-        <x:v>244.9</x:v>
-      </x:c>
-      <x:c r="G8" s="0" t="n">
-        <x:v>1224.5</x:v>
-      </x:c>
-      <x:c r="H8" s="0" t="n">
-        <x:v>2009</x:v>
-      </x:c>
-      <x:c r="I8" s="0" t="n">
-        <x:v>4018</x:v>
-      </x:c>
-      <x:c r="M8" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="N8" s="0" t="s">
-        <x:v>13</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -738,7 +526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{D6FBC510-24BF-4B1D-BCC0-17CBDEE28C90}" mc:Ignorable="x14ac xr xr2 xr3">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{DD0C9B9A-9008-43A1-B27E-FCAD67FE4288}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
